--- a/MethodDemos/output/statistics/all-best-method-per-evaltype-reference-statistics.xlsx
+++ b/MethodDemos/output/statistics/all-best-method-per-evaltype-reference-statistics.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Cermine</t>
   </si>
@@ -55,12 +55,15 @@
   <si>
     <t>not same method best for all parameters</t>
   </si>
+  <si>
+    <t>max</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +74,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,32 +109,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1200,486 +1199,679 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
         <f>'[1]Tabelle 1'!A2</f>
         <v>Id</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="str">
         <f>'[1]Tabelle 1'!A3</f>
         <v>Marker</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B3=MAX('[1]Tabelle 1'!B3:E3),"Cermine",IF('[1]Tabelle 1'!C3=MAX('[1]Tabelle 1'!B3:E3),"Grobid",IF('[1]Tabelle 1'!D3=MAX('[1]Tabelle 1'!B3:E3),"ParsCit",IF('[1]Tabelle 1'!E3=MAX('[1]Tabelle 1'!B3:E3),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B3=C2,"Cermine",IF('[1]Tabelle 1'!C3=C2,"Grobid",IF('[1]Tabelle 1'!D3=C2,"ParsCit",IF('[1]Tabelle 1'!E3=C2,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="C2" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F3=MAX('[1]Tabelle 1'!F3:I3),"Cermine",IF('[1]Tabelle 1'!G3=MAX('[1]Tabelle 1'!F3:I3),"Grobid",IF('[1]Tabelle 1'!H3=MAX('[1]Tabelle 1'!F3:I3),"ParsCit",IF('[1]Tabelle 1'!I3=MAX('[1]Tabelle 1'!F3:I3),"PDFX","none"))))</f>
+      <c r="C2" s="3">
+        <f>MAX('[1]Tabelle 1'!B3:E3)</f>
+        <v>15.72</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F3=E2,"Cermine",IF('[1]Tabelle 1'!G3=E2,"Grobid",IF('[1]Tabelle 1'!H3=E2,"ParsCit",IF('[1]Tabelle 1'!I3=E2,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J3=MAX('[1]Tabelle 1'!J3:M3),"Cermine",IF('[1]Tabelle 1'!K3=MAX('[1]Tabelle 1'!J3:M3),"Grobid",IF('[1]Tabelle 1'!L3=MAX('[1]Tabelle 1'!J3:M3),"ParsCit",IF('[1]Tabelle 1'!M3=MAX('[1]Tabelle 1'!J3:M3),"PDFX","none"))))</f>
+      <c r="E2" s="3">
+        <f>MAX('[1]Tabelle 1'!F3:I3)</f>
+        <v>53.21</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J3=G2,"Cermine",IF('[1]Tabelle 1'!K3=G2,"Grobid",IF('[1]Tabelle 1'!L3=G2,"ParsCit",IF('[1]Tabelle 1'!M3=G2,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3">
+        <f>MAX('[1]Tabelle 1'!J3:M3)</f>
+        <v>15.72</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
-        <f>COUNTIF(B$2:B$22,$F2)</f>
+      <c r="J2" s="2">
+        <f>COUNTIF(B$2:B$20,$I2)</f>
         <v>1</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2:I5" si="0">COUNTIF(C$2:C$22,$F2)</f>
+      <c r="K2" s="2">
+        <f>COUNTIF(D$2:D$20,$I2)</f>
         <v>6</v>
       </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
+      <c r="L2" s="2">
+        <f>COUNTIF(F$2:F$20,$I2)</f>
         <v>7</v>
       </c>
-      <c r="J2">
-        <f>SUM(G2:I2)</f>
+      <c r="M2" s="2">
+        <f>SUM(J2:L2)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="str">
         <f>'[1]Tabelle 1'!A4</f>
         <v>Title</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B4=MAX('[1]Tabelle 1'!B4:E4),"Cermine",IF('[1]Tabelle 1'!C4=MAX('[1]Tabelle 1'!B4:E4),"Grobid",IF('[1]Tabelle 1'!D4=MAX('[1]Tabelle 1'!B4:E4),"ParsCit",IF('[1]Tabelle 1'!E4=MAX('[1]Tabelle 1'!B4:E4),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F4=MAX('[1]Tabelle 1'!F4:I4),"Cermine",IF('[1]Tabelle 1'!G4=MAX('[1]Tabelle 1'!F4:I4),"Grobid",IF('[1]Tabelle 1'!H4=MAX('[1]Tabelle 1'!F4:I4),"ParsCit",IF('[1]Tabelle 1'!I4=MAX('[1]Tabelle 1'!F4:I4),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B4=C3,"Cermine",IF('[1]Tabelle 1'!C4=C3,"Grobid",IF('[1]Tabelle 1'!D4=C3,"ParsCit",IF('[1]Tabelle 1'!E4=C3,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C3" s="3">
+        <f>MAX('[1]Tabelle 1'!B4:E4)</f>
+        <v>95.62</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F4=E3,"Cermine",IF('[1]Tabelle 1'!G4=E3,"Grobid",IF('[1]Tabelle 1'!H4=E3,"ParsCit",IF('[1]Tabelle 1'!I4=E3,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="D3" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J4=MAX('[1]Tabelle 1'!J4:M4),"Cermine",IF('[1]Tabelle 1'!K4=MAX('[1]Tabelle 1'!J4:M4),"Grobid",IF('[1]Tabelle 1'!L4=MAX('[1]Tabelle 1'!J4:M4),"ParsCit",IF('[1]Tabelle 1'!M4=MAX('[1]Tabelle 1'!J4:M4),"PDFX","none"))))</f>
+      <c r="E3" s="3">
+        <f>MAX('[1]Tabelle 1'!F4:I4)</f>
+        <v>78.88</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J4=G3,"Cermine",IF('[1]Tabelle 1'!K4=G3,"Grobid",IF('[1]Tabelle 1'!L4=G3,"ParsCit",IF('[1]Tabelle 1'!M4=G3,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3">
+        <f>MAX('[1]Tabelle 1'!J4:M4)</f>
+        <v>76.64</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">COUNTIF(B$2:B$22,$F3)</f>
+      <c r="J3" s="2">
+        <f>COUNTIF(B$2:B$20,$I3)</f>
         <v>9</v>
       </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
+      <c r="K3" s="2">
+        <f>COUNTIF(D$2:D$20,$I3)</f>
         <v>7</v>
       </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
+      <c r="L3" s="2">
+        <f>COUNTIF(F$2:F$20,$I3)</f>
         <v>7</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="2">SUM(G3:I3)</f>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M5" si="0">SUM(J3:L3)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="str">
         <f>'[1]Tabelle 1'!A5</f>
         <v>Source</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B5=MAX('[1]Tabelle 1'!B5:E5),"Cermine",IF('[1]Tabelle 1'!C5=MAX('[1]Tabelle 1'!B5:E5),"Grobid",IF('[1]Tabelle 1'!D5=MAX('[1]Tabelle 1'!B5:E5),"ParsCit",IF('[1]Tabelle 1'!E5=MAX('[1]Tabelle 1'!B5:E5),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F5=MAX('[1]Tabelle 1'!F5:I5),"Cermine",IF('[1]Tabelle 1'!G5=MAX('[1]Tabelle 1'!F5:I5),"Grobid",IF('[1]Tabelle 1'!H5=MAX('[1]Tabelle 1'!F5:I5),"ParsCit",IF('[1]Tabelle 1'!I5=MAX('[1]Tabelle 1'!F5:I5),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B5=C4,"Cermine",IF('[1]Tabelle 1'!C5=C4,"Grobid",IF('[1]Tabelle 1'!D5=C4,"ParsCit",IF('[1]Tabelle 1'!E5=C4,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C4" s="3">
+        <f>MAX('[1]Tabelle 1'!B5:E5)</f>
+        <v>69.36</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J5=MAX('[1]Tabelle 1'!J5:M5),"Cermine",IF('[1]Tabelle 1'!K5=MAX('[1]Tabelle 1'!J5:M5),"Grobid",IF('[1]Tabelle 1'!L5=MAX('[1]Tabelle 1'!J5:M5),"ParsCit",IF('[1]Tabelle 1'!M5=MAX('[1]Tabelle 1'!J5:M5),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="F4" t="s">
+        <f>IF('[1]Tabelle 1'!F5=E4,"Cermine",IF('[1]Tabelle 1'!G5=E4,"Grobid",IF('[1]Tabelle 1'!H5=E4,"ParsCit",IF('[1]Tabelle 1'!I5=E4,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E4" s="3">
+        <f>MAX('[1]Tabelle 1'!F5:I5)</f>
+        <v>78.36</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J5=G4,"Cermine",IF('[1]Tabelle 1'!K5=G4,"Grobid",IF('[1]Tabelle 1'!L5=G4,"ParsCit",IF('[1]Tabelle 1'!M5=G4,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G4" s="3">
+        <f>MAX('[1]Tabelle 1'!J5:M5)</f>
+        <v>68.94</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
+      <c r="J4" s="2">
+        <f>COUNTIF(B$2:B$20,$I4)</f>
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="K4" s="2">
+        <f>COUNTIF(D$2:D$20,$I4)</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <f>COUNTIF(F$2:F$20,$I4)</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="str">
         <f>'[1]Tabelle 1'!A6</f>
         <v>Publisher</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B6=MAX('[1]Tabelle 1'!B6:E6),"Cermine",IF('[1]Tabelle 1'!C6=MAX('[1]Tabelle 1'!B6:E6),"Grobid",IF('[1]Tabelle 1'!D6=MAX('[1]Tabelle 1'!B6:E6),"ParsCit",IF('[1]Tabelle 1'!E6=MAX('[1]Tabelle 1'!B6:E6),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F6=MAX('[1]Tabelle 1'!F6:I6),"Cermine",IF('[1]Tabelle 1'!G6=MAX('[1]Tabelle 1'!F6:I6),"Grobid",IF('[1]Tabelle 1'!H6=MAX('[1]Tabelle 1'!F6:I6),"ParsCit",IF('[1]Tabelle 1'!I6=MAX('[1]Tabelle 1'!F6:I6),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B6=C5,"Cermine",IF('[1]Tabelle 1'!C6=C5,"Grobid",IF('[1]Tabelle 1'!D6=C5,"ParsCit",IF('[1]Tabelle 1'!E6=C5,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C5" s="3">
+        <f>MAX('[1]Tabelle 1'!B6:E6)</f>
+        <v>87.21</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J6=MAX('[1]Tabelle 1'!J6:M6),"Cermine",IF('[1]Tabelle 1'!K6=MAX('[1]Tabelle 1'!J6:M6),"Grobid",IF('[1]Tabelle 1'!L6=MAX('[1]Tabelle 1'!J6:M6),"ParsCit",IF('[1]Tabelle 1'!M6=MAX('[1]Tabelle 1'!J6:M6),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="F5" t="s">
+        <f>IF('[1]Tabelle 1'!F6=E5,"Cermine",IF('[1]Tabelle 1'!G6=E5,"Grobid",IF('[1]Tabelle 1'!H6=E5,"ParsCit",IF('[1]Tabelle 1'!I6=E5,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E5" s="3">
+        <f>MAX('[1]Tabelle 1'!F6:I6)</f>
+        <v>62.8</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J6=G5,"Cermine",IF('[1]Tabelle 1'!K6=G5,"Grobid",IF('[1]Tabelle 1'!L6=G5,"ParsCit",IF('[1]Tabelle 1'!M6=G5,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G5" s="3">
+        <f>MAX('[1]Tabelle 1'!J6:M6)</f>
+        <v>59.93</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
+      <c r="J5" s="2">
+        <f>COUNTIF(B$2:B$20,$I5)</f>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="K5" s="2">
+        <f>COUNTIF(D$2:D$20,$I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f>COUNTIF(F$2:F$20,$I5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="str">
         <f>'[1]Tabelle 1'!A7</f>
         <v>Editor</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B7=MAX('[1]Tabelle 1'!B7:E7),"Cermine",IF('[1]Tabelle 1'!C7=MAX('[1]Tabelle 1'!B7:E7),"Grobid",IF('[1]Tabelle 1'!D7=MAX('[1]Tabelle 1'!B7:E7),"ParsCit",IF('[1]Tabelle 1'!E7=MAX('[1]Tabelle 1'!B7:E7),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B7=C6,"Cermine",IF('[1]Tabelle 1'!C7=C6,"Grobid",IF('[1]Tabelle 1'!D7=C6,"ParsCit",IF('[1]Tabelle 1'!E7=C6,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="C6" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F7=MAX('[1]Tabelle 1'!F7:I7),"Cermine",IF('[1]Tabelle 1'!G7=MAX('[1]Tabelle 1'!F7:I7),"Grobid",IF('[1]Tabelle 1'!H7=MAX('[1]Tabelle 1'!F7:I7),"ParsCit",IF('[1]Tabelle 1'!I7=MAX('[1]Tabelle 1'!F7:I7),"PDFX","none"))))</f>
+      <c r="C6" s="3">
+        <f>MAX('[1]Tabelle 1'!B7:E7)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F7=E6,"Cermine",IF('[1]Tabelle 1'!G7=E6,"Grobid",IF('[1]Tabelle 1'!H7=E6,"ParsCit",IF('[1]Tabelle 1'!I7=E6,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="D6" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J7=MAX('[1]Tabelle 1'!J7:M7),"Cermine",IF('[1]Tabelle 1'!K7=MAX('[1]Tabelle 1'!J7:M7),"Grobid",IF('[1]Tabelle 1'!L7=MAX('[1]Tabelle 1'!J7:M7),"ParsCit",IF('[1]Tabelle 1'!M7=MAX('[1]Tabelle 1'!J7:M7),"PDFX","none"))))</f>
+      <c r="E6" s="3">
+        <f>MAX('[1]Tabelle 1'!F7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J7=G6,"Cermine",IF('[1]Tabelle 1'!K7=G6,"Grobid",IF('[1]Tabelle 1'!L7=G6,"ParsCit",IF('[1]Tabelle 1'!M7=G6,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="G6" s="3">
+        <f>MAX('[1]Tabelle 1'!J7:M7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="str">
         <f>'[1]Tabelle 1'!A8</f>
         <v>Authors</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B8=MAX('[1]Tabelle 1'!B8:E8),"Cermine",IF('[1]Tabelle 1'!C8=MAX('[1]Tabelle 1'!B8:E8),"Grobid",IF('[1]Tabelle 1'!D8=MAX('[1]Tabelle 1'!B8:E8),"ParsCit",IF('[1]Tabelle 1'!E8=MAX('[1]Tabelle 1'!B8:E8),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B8=C7,"Cermine",IF('[1]Tabelle 1'!C8=C7,"Grobid",IF('[1]Tabelle 1'!D8=C7,"ParsCit",IF('[1]Tabelle 1'!E8=C7,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="C7" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F8=MAX('[1]Tabelle 1'!F8:I8),"Cermine",IF('[1]Tabelle 1'!G8=MAX('[1]Tabelle 1'!F8:I8),"Grobid",IF('[1]Tabelle 1'!H8=MAX('[1]Tabelle 1'!F8:I8),"ParsCit",IF('[1]Tabelle 1'!I8=MAX('[1]Tabelle 1'!F8:I8),"PDFX","none"))))</f>
+      <c r="C7" s="3">
+        <f>MAX('[1]Tabelle 1'!B8:E8)</f>
+        <v>93.05</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F8=E7,"Cermine",IF('[1]Tabelle 1'!G8=E7,"Grobid",IF('[1]Tabelle 1'!H8=E7,"ParsCit",IF('[1]Tabelle 1'!I8=E7,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="D7" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J8=MAX('[1]Tabelle 1'!J8:M8),"Cermine",IF('[1]Tabelle 1'!K8=MAX('[1]Tabelle 1'!J8:M8),"Grobid",IF('[1]Tabelle 1'!L8=MAX('[1]Tabelle 1'!J8:M8),"ParsCit",IF('[1]Tabelle 1'!M8=MAX('[1]Tabelle 1'!J8:M8),"PDFX","none"))))</f>
+      <c r="E7" s="3">
+        <f>MAX('[1]Tabelle 1'!F8:I8)</f>
+        <v>92.07</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J8=G7,"Cermine",IF('[1]Tabelle 1'!K8=G7,"Grobid",IF('[1]Tabelle 1'!L8=G7,"ParsCit",IF('[1]Tabelle 1'!M8=G7,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="G7" s="3">
+        <f>MAX('[1]Tabelle 1'!J8:M8)</f>
+        <v>91.07</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="str">
         <f>'[1]Tabelle 1'!A9</f>
         <v>Edition</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B9=MAX('[1]Tabelle 1'!B9:E9),"Cermine",IF('[1]Tabelle 1'!C9=MAX('[1]Tabelle 1'!B9:E9),"Grobid",IF('[1]Tabelle 1'!D9=MAX('[1]Tabelle 1'!B9:E9),"ParsCit",IF('[1]Tabelle 1'!E9=MAX('[1]Tabelle 1'!B9:E9),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B9=C8,"Cermine",IF('[1]Tabelle 1'!C9=C8,"Grobid",IF('[1]Tabelle 1'!D9=C8,"ParsCit",IF('[1]Tabelle 1'!E9=C8,"PDFX","none"))))</f>
         <v>none</v>
       </c>
-      <c r="C8" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F9=MAX('[1]Tabelle 1'!F9:I9),"Cermine",IF('[1]Tabelle 1'!G9=MAX('[1]Tabelle 1'!F9:I9),"Grobid",IF('[1]Tabelle 1'!H9=MAX('[1]Tabelle 1'!F9:I9),"ParsCit",IF('[1]Tabelle 1'!I9=MAX('[1]Tabelle 1'!F9:I9),"PDFX","none"))))</f>
+      <c r="C8" s="3">
+        <f>MAX('[1]Tabelle 1'!B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F9=E8,"Cermine",IF('[1]Tabelle 1'!G9=E8,"Grobid",IF('[1]Tabelle 1'!H9=E8,"ParsCit",IF('[1]Tabelle 1'!I9=E8,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="D8" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J9=MAX('[1]Tabelle 1'!J9:M9),"Cermine",IF('[1]Tabelle 1'!K9=MAX('[1]Tabelle 1'!J9:M9),"Grobid",IF('[1]Tabelle 1'!L9=MAX('[1]Tabelle 1'!J9:M9),"ParsCit",IF('[1]Tabelle 1'!M9=MAX('[1]Tabelle 1'!J9:M9),"PDFX","none"))))</f>
+      <c r="E8" s="3">
+        <f>MAX('[1]Tabelle 1'!F9:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J9=G8,"Cermine",IF('[1]Tabelle 1'!K9=G8,"Grobid",IF('[1]Tabelle 1'!L9=G8,"ParsCit",IF('[1]Tabelle 1'!M9=G8,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="G8" s="3">
+        <f>MAX('[1]Tabelle 1'!J9:M9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="str">
         <f>'[1]Tabelle 1'!A10</f>
         <v>Location</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B10=MAX('[1]Tabelle 1'!B10:E10),"Cermine",IF('[1]Tabelle 1'!C10=MAX('[1]Tabelle 1'!B10:E10),"Grobid",IF('[1]Tabelle 1'!D10=MAX('[1]Tabelle 1'!B10:E10),"ParsCit",IF('[1]Tabelle 1'!E10=MAX('[1]Tabelle 1'!B10:E10),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F10=MAX('[1]Tabelle 1'!F10:I10),"Cermine",IF('[1]Tabelle 1'!G10=MAX('[1]Tabelle 1'!F10:I10),"Grobid",IF('[1]Tabelle 1'!H10=MAX('[1]Tabelle 1'!F10:I10),"ParsCit",IF('[1]Tabelle 1'!I10=MAX('[1]Tabelle 1'!F10:I10),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B10=C9,"Cermine",IF('[1]Tabelle 1'!C10=C9,"Grobid",IF('[1]Tabelle 1'!D10=C9,"ParsCit",IF('[1]Tabelle 1'!E10=C9,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C9" s="3">
+        <f>MAX('[1]Tabelle 1'!B10:E10)</f>
+        <v>78.13</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J10=MAX('[1]Tabelle 1'!J10:M10),"Cermine",IF('[1]Tabelle 1'!K10=MAX('[1]Tabelle 1'!J10:M10),"Grobid",IF('[1]Tabelle 1'!L10=MAX('[1]Tabelle 1'!J10:M10),"ParsCit",IF('[1]Tabelle 1'!M10=MAX('[1]Tabelle 1'!J10:M10),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+        <f>IF('[1]Tabelle 1'!F10=E9,"Cermine",IF('[1]Tabelle 1'!G10=E9,"Grobid",IF('[1]Tabelle 1'!H10=E9,"ParsCit",IF('[1]Tabelle 1'!I10=E9,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E9" s="3">
+        <f>MAX('[1]Tabelle 1'!F10:I10)</f>
+        <v>28.63</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J10=G9,"Cermine",IF('[1]Tabelle 1'!K10=G9,"Grobid",IF('[1]Tabelle 1'!L10=G9,"ParsCit",IF('[1]Tabelle 1'!M10=G9,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G9" s="3">
+        <f>MAX('[1]Tabelle 1'!J10:M10)</f>
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="str">
         <f>'[1]Tabelle 1'!A11</f>
         <v>Volume</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B11=MAX('[1]Tabelle 1'!B11:E11),"Cermine",IF('[1]Tabelle 1'!C11=MAX('[1]Tabelle 1'!B11:E11),"Grobid",IF('[1]Tabelle 1'!D11=MAX('[1]Tabelle 1'!B11:E11),"ParsCit",IF('[1]Tabelle 1'!E11=MAX('[1]Tabelle 1'!B11:E11),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C10" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F11=MAX('[1]Tabelle 1'!F11:I11),"Cermine",IF('[1]Tabelle 1'!G11=MAX('[1]Tabelle 1'!F11:I11),"Grobid",IF('[1]Tabelle 1'!H11=MAX('[1]Tabelle 1'!F11:I11),"ParsCit",IF('[1]Tabelle 1'!I11=MAX('[1]Tabelle 1'!F11:I11),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B11=C10,"Cermine",IF('[1]Tabelle 1'!C11=C10,"Grobid",IF('[1]Tabelle 1'!D11=C10,"ParsCit",IF('[1]Tabelle 1'!E11=C10,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C10" s="3">
+        <f>MAX('[1]Tabelle 1'!B11:E11)</f>
+        <v>99.21</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F11=E10,"Cermine",IF('[1]Tabelle 1'!G11=E10,"Grobid",IF('[1]Tabelle 1'!H11=E10,"ParsCit",IF('[1]Tabelle 1'!I11=E10,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="D10" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J11=MAX('[1]Tabelle 1'!J11:M11),"Cermine",IF('[1]Tabelle 1'!K11=MAX('[1]Tabelle 1'!J11:M11),"Grobid",IF('[1]Tabelle 1'!L11=MAX('[1]Tabelle 1'!J11:M11),"ParsCit",IF('[1]Tabelle 1'!M11=MAX('[1]Tabelle 1'!J11:M11),"PDFX","none"))))</f>
+      <c r="E10" s="3">
+        <f>MAX('[1]Tabelle 1'!F11:I11)</f>
+        <v>87.89</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J11=G10,"Cermine",IF('[1]Tabelle 1'!K11=G10,"Grobid",IF('[1]Tabelle 1'!L11=G10,"ParsCit",IF('[1]Tabelle 1'!M11=G10,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="G10" s="3">
+        <f>MAX('[1]Tabelle 1'!J11:M11)</f>
+        <v>79.819999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="str">
         <f>'[1]Tabelle 1'!A12</f>
         <v>Issue</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B12=MAX('[1]Tabelle 1'!B12:E12),"Cermine",IF('[1]Tabelle 1'!C12=MAX('[1]Tabelle 1'!B12:E12),"Grobid",IF('[1]Tabelle 1'!D12=MAX('[1]Tabelle 1'!B12:E12),"ParsCit",IF('[1]Tabelle 1'!E12=MAX('[1]Tabelle 1'!B12:E12),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B12=C11,"Cermine",IF('[1]Tabelle 1'!C12=C11,"Grobid",IF('[1]Tabelle 1'!D12=C11,"ParsCit",IF('[1]Tabelle 1'!E12=C11,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="C11" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F12=MAX('[1]Tabelle 1'!F12:I12),"Cermine",IF('[1]Tabelle 1'!G12=MAX('[1]Tabelle 1'!F12:I12),"Grobid",IF('[1]Tabelle 1'!H12=MAX('[1]Tabelle 1'!F12:I12),"ParsCit",IF('[1]Tabelle 1'!I12=MAX('[1]Tabelle 1'!F12:I12),"PDFX","none"))))</f>
+      <c r="C11" s="3">
+        <f>MAX('[1]Tabelle 1'!B12:E12)</f>
+        <v>97.15</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F12=E11,"Cermine",IF('[1]Tabelle 1'!G12=E11,"Grobid",IF('[1]Tabelle 1'!H12=E11,"ParsCit",IF('[1]Tabelle 1'!I12=E11,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="D11" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J12=MAX('[1]Tabelle 1'!J12:M12),"Cermine",IF('[1]Tabelle 1'!K12=MAX('[1]Tabelle 1'!J12:M12),"Grobid",IF('[1]Tabelle 1'!L12=MAX('[1]Tabelle 1'!J12:M12),"ParsCit",IF('[1]Tabelle 1'!M12=MAX('[1]Tabelle 1'!J12:M12),"PDFX","none"))))</f>
+      <c r="E11" s="3">
+        <f>MAX('[1]Tabelle 1'!F12:I12)</f>
+        <v>87.92</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J12=G11,"Cermine",IF('[1]Tabelle 1'!K12=G11,"Grobid",IF('[1]Tabelle 1'!L12=G11,"ParsCit",IF('[1]Tabelle 1'!M12=G11,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="G11" s="3">
+        <f>MAX('[1]Tabelle 1'!J12:M12)</f>
+        <v>80.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="str">
         <f>'[1]Tabelle 1'!A13</f>
         <v>Chapter</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B13=MAX('[1]Tabelle 1'!B13:E13),"Cermine",IF('[1]Tabelle 1'!C13=MAX('[1]Tabelle 1'!B13:E13),"Grobid",IF('[1]Tabelle 1'!D13=MAX('[1]Tabelle 1'!B13:E13),"ParsCit",IF('[1]Tabelle 1'!E13=MAX('[1]Tabelle 1'!B13:E13),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B13=C12,"Cermine",IF('[1]Tabelle 1'!C13=C12,"Grobid",IF('[1]Tabelle 1'!D13=C12,"ParsCit",IF('[1]Tabelle 1'!E13=C12,"PDFX","none"))))</f>
         <v>none</v>
       </c>
-      <c r="C12" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F13=MAX('[1]Tabelle 1'!F13:I13),"Cermine",IF('[1]Tabelle 1'!G13=MAX('[1]Tabelle 1'!F13:I13),"Grobid",IF('[1]Tabelle 1'!H13=MAX('[1]Tabelle 1'!F13:I13),"ParsCit",IF('[1]Tabelle 1'!I13=MAX('[1]Tabelle 1'!F13:I13),"PDFX","none"))))</f>
+      <c r="C12" s="3">
+        <f>MAX('[1]Tabelle 1'!B13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F13=E12,"Cermine",IF('[1]Tabelle 1'!G13=E12,"Grobid",IF('[1]Tabelle 1'!H13=E12,"ParsCit",IF('[1]Tabelle 1'!I13=E12,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="D12" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J13=MAX('[1]Tabelle 1'!J13:M13),"Cermine",IF('[1]Tabelle 1'!K13=MAX('[1]Tabelle 1'!J13:M13),"Grobid",IF('[1]Tabelle 1'!L13=MAX('[1]Tabelle 1'!J13:M13),"ParsCit",IF('[1]Tabelle 1'!M13=MAX('[1]Tabelle 1'!J13:M13),"PDFX","none"))))</f>
+      <c r="E12" s="3">
+        <f>MAX('[1]Tabelle 1'!F13:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J13=G12,"Cermine",IF('[1]Tabelle 1'!K13=G12,"Grobid",IF('[1]Tabelle 1'!L13=G12,"ParsCit",IF('[1]Tabelle 1'!M13=G12,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="G12" s="3">
+        <f>MAX('[1]Tabelle 1'!J13:M13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="str">
         <f>'[1]Tabelle 1'!A14</f>
         <v>Note</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B14=MAX('[1]Tabelle 1'!B14:E14),"Cermine",IF('[1]Tabelle 1'!C14=MAX('[1]Tabelle 1'!B14:E14),"Grobid",IF('[1]Tabelle 1'!D14=MAX('[1]Tabelle 1'!B14:E14),"ParsCit",IF('[1]Tabelle 1'!E14=MAX('[1]Tabelle 1'!B14:E14),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B14=C13,"Cermine",IF('[1]Tabelle 1'!C14=C13,"Grobid",IF('[1]Tabelle 1'!D14=C13,"ParsCit",IF('[1]Tabelle 1'!E14=C13,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="C13" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F14=MAX('[1]Tabelle 1'!F14:I14),"Cermine",IF('[1]Tabelle 1'!G14=MAX('[1]Tabelle 1'!F14:I14),"Grobid",IF('[1]Tabelle 1'!H14=MAX('[1]Tabelle 1'!F14:I14),"ParsCit",IF('[1]Tabelle 1'!I14=MAX('[1]Tabelle 1'!F14:I14),"PDFX","none"))))</f>
+      <c r="C13" s="3">
+        <f>MAX('[1]Tabelle 1'!B14:E14)</f>
+        <v>4.71</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F14=E13,"Cermine",IF('[1]Tabelle 1'!G14=E13,"Grobid",IF('[1]Tabelle 1'!H14=E13,"ParsCit",IF('[1]Tabelle 1'!I14=E13,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-      <c r="D13" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J14=MAX('[1]Tabelle 1'!J14:M14),"Cermine",IF('[1]Tabelle 1'!K14=MAX('[1]Tabelle 1'!J14:M14),"Grobid",IF('[1]Tabelle 1'!L14=MAX('[1]Tabelle 1'!J14:M14),"ParsCit",IF('[1]Tabelle 1'!M14=MAX('[1]Tabelle 1'!J14:M14),"PDFX","none"))))</f>
+      <c r="E13" s="3">
+        <f>MAX('[1]Tabelle 1'!F14:I14)</f>
+        <v>3.45</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J14=G13,"Cermine",IF('[1]Tabelle 1'!K14=G13,"Grobid",IF('[1]Tabelle 1'!L14=G13,"ParsCit",IF('[1]Tabelle 1'!M14=G13,"PDFX","none"))))</f>
         <v>ParsCit</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="G13" s="3">
+        <f>MAX('[1]Tabelle 1'!J14:M14)</f>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="str">
         <f>'[1]Tabelle 1'!A15</f>
         <v>Page from</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B15=MAX('[1]Tabelle 1'!B15:E15),"Cermine",IF('[1]Tabelle 1'!C15=MAX('[1]Tabelle 1'!B15:E15),"Grobid",IF('[1]Tabelle 1'!D15=MAX('[1]Tabelle 1'!B15:E15),"ParsCit",IF('[1]Tabelle 1'!E15=MAX('[1]Tabelle 1'!B15:E15),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C14" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F15=MAX('[1]Tabelle 1'!F15:I15),"Cermine",IF('[1]Tabelle 1'!G15=MAX('[1]Tabelle 1'!F15:I15),"Grobid",IF('[1]Tabelle 1'!H15=MAX('[1]Tabelle 1'!F15:I15),"ParsCit",IF('[1]Tabelle 1'!I15=MAX('[1]Tabelle 1'!F15:I15),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B15=C14,"Cermine",IF('[1]Tabelle 1'!C15=C14,"Grobid",IF('[1]Tabelle 1'!D15=C14,"ParsCit",IF('[1]Tabelle 1'!E15=C14,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C14" s="3">
+        <f>MAX('[1]Tabelle 1'!B15:E15)</f>
+        <v>96.73</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J15=MAX('[1]Tabelle 1'!J15:M15),"Cermine",IF('[1]Tabelle 1'!K15=MAX('[1]Tabelle 1'!J15:M15),"Grobid",IF('[1]Tabelle 1'!L15=MAX('[1]Tabelle 1'!J15:M15),"ParsCit",IF('[1]Tabelle 1'!M15=MAX('[1]Tabelle 1'!J15:M15),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+        <f>IF('[1]Tabelle 1'!F15=E14,"Cermine",IF('[1]Tabelle 1'!G15=E14,"Grobid",IF('[1]Tabelle 1'!H15=E14,"ParsCit",IF('[1]Tabelle 1'!I15=E14,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E14" s="3">
+        <f>MAX('[1]Tabelle 1'!F15:I15)</f>
+        <v>88.48</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J15=G14,"Cermine",IF('[1]Tabelle 1'!K15=G14,"Grobid",IF('[1]Tabelle 1'!L15=G14,"ParsCit",IF('[1]Tabelle 1'!M15=G14,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G14" s="3">
+        <f>MAX('[1]Tabelle 1'!J15:M15)</f>
+        <v>87.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="str">
         <f>'[1]Tabelle 1'!A16</f>
         <v>Page to</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B16=MAX('[1]Tabelle 1'!B16:E16),"Cermine",IF('[1]Tabelle 1'!C16=MAX('[1]Tabelle 1'!B16:E16),"Grobid",IF('[1]Tabelle 1'!D16=MAX('[1]Tabelle 1'!B16:E16),"ParsCit",IF('[1]Tabelle 1'!E16=MAX('[1]Tabelle 1'!B16:E16),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B16=C15,"Cermine",IF('[1]Tabelle 1'!C16=C15,"Grobid",IF('[1]Tabelle 1'!D16=C15,"ParsCit",IF('[1]Tabelle 1'!E16=C15,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="C15" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F16=MAX('[1]Tabelle 1'!F16:I16),"Cermine",IF('[1]Tabelle 1'!G16=MAX('[1]Tabelle 1'!F16:I16),"Grobid",IF('[1]Tabelle 1'!H16=MAX('[1]Tabelle 1'!F16:I16),"ParsCit",IF('[1]Tabelle 1'!I16=MAX('[1]Tabelle 1'!F16:I16),"PDFX","none"))))</f>
+      <c r="C15" s="3">
+        <f>MAX('[1]Tabelle 1'!B16:E16)</f>
+        <v>98.35</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F16=E15,"Cermine",IF('[1]Tabelle 1'!G16=E15,"Grobid",IF('[1]Tabelle 1'!H16=E15,"ParsCit",IF('[1]Tabelle 1'!I16=E15,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="D15" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J16=MAX('[1]Tabelle 1'!J16:M16),"Cermine",IF('[1]Tabelle 1'!K16=MAX('[1]Tabelle 1'!J16:M16),"Grobid",IF('[1]Tabelle 1'!L16=MAX('[1]Tabelle 1'!J16:M16),"ParsCit",IF('[1]Tabelle 1'!M16=MAX('[1]Tabelle 1'!J16:M16),"PDFX","none"))))</f>
+      <c r="E15" s="3">
+        <f>MAX('[1]Tabelle 1'!F16:I16)</f>
+        <v>90.99</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J16=G15,"Cermine",IF('[1]Tabelle 1'!K16=G15,"Grobid",IF('[1]Tabelle 1'!L16=G15,"ParsCit",IF('[1]Tabelle 1'!M16=G15,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="G15" s="3">
+        <f>MAX('[1]Tabelle 1'!J16:M16)</f>
+        <v>90.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="str">
         <f>'[1]Tabelle 1'!A17</f>
         <v>Date</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B17=MAX('[1]Tabelle 1'!B17:E17),"Cermine",IF('[1]Tabelle 1'!C17=MAX('[1]Tabelle 1'!B17:E17),"Grobid",IF('[1]Tabelle 1'!D17=MAX('[1]Tabelle 1'!B17:E17),"ParsCit",IF('[1]Tabelle 1'!E17=MAX('[1]Tabelle 1'!B17:E17),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F17=MAX('[1]Tabelle 1'!F17:I17),"Cermine",IF('[1]Tabelle 1'!G17=MAX('[1]Tabelle 1'!F17:I17),"Grobid",IF('[1]Tabelle 1'!H17=MAX('[1]Tabelle 1'!F17:I17),"ParsCit",IF('[1]Tabelle 1'!I17=MAX('[1]Tabelle 1'!F17:I17),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B17=C16,"Cermine",IF('[1]Tabelle 1'!C17=C16,"Grobid",IF('[1]Tabelle 1'!D17=C16,"ParsCit",IF('[1]Tabelle 1'!E17=C16,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C16" s="3">
+        <f>MAX('[1]Tabelle 1'!B17:E17)</f>
+        <v>94.86</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J17=MAX('[1]Tabelle 1'!J17:M17),"Cermine",IF('[1]Tabelle 1'!K17=MAX('[1]Tabelle 1'!J17:M17),"Grobid",IF('[1]Tabelle 1'!L17=MAX('[1]Tabelle 1'!J17:M17),"ParsCit",IF('[1]Tabelle 1'!M17=MAX('[1]Tabelle 1'!J17:M17),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+        <f>IF('[1]Tabelle 1'!F17=E16,"Cermine",IF('[1]Tabelle 1'!G17=E16,"Grobid",IF('[1]Tabelle 1'!H17=E16,"ParsCit",IF('[1]Tabelle 1'!I17=E16,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E16" s="3">
+        <f>MAX('[1]Tabelle 1'!F17:I17)</f>
+        <v>96.4</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J17=G16,"Cermine",IF('[1]Tabelle 1'!K17=G16,"Grobid",IF('[1]Tabelle 1'!L17=G16,"ParsCit",IF('[1]Tabelle 1'!M17=G16,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G16" s="3">
+        <f>MAX('[1]Tabelle 1'!J17:M17)</f>
+        <v>93.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="str">
         <f>'[1]Tabelle 1'!A18</f>
         <v>Doi</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B18=MAX('[1]Tabelle 1'!B18:E18),"Cermine",IF('[1]Tabelle 1'!C18=MAX('[1]Tabelle 1'!B18:E18),"Grobid",IF('[1]Tabelle 1'!D18=MAX('[1]Tabelle 1'!B18:E18),"ParsCit",IF('[1]Tabelle 1'!E18=MAX('[1]Tabelle 1'!B18:E18),"PDFX","none"))))</f>
+        <f>IF('[1]Tabelle 1'!B18=C17,"Cermine",IF('[1]Tabelle 1'!C18=C17,"Grobid",IF('[1]Tabelle 1'!D18=C17,"ParsCit",IF('[1]Tabelle 1'!E18=C17,"PDFX","none"))))</f>
         <v>none</v>
       </c>
-      <c r="C17" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F18=MAX('[1]Tabelle 1'!F18:I18),"Cermine",IF('[1]Tabelle 1'!G18=MAX('[1]Tabelle 1'!F18:I18),"Grobid",IF('[1]Tabelle 1'!H18=MAX('[1]Tabelle 1'!F18:I18),"ParsCit",IF('[1]Tabelle 1'!I18=MAX('[1]Tabelle 1'!F18:I18),"PDFX","none"))))</f>
+      <c r="C17" s="3">
+        <f>MAX('[1]Tabelle 1'!B18:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!F18=E17,"Cermine",IF('[1]Tabelle 1'!G18=E17,"Grobid",IF('[1]Tabelle 1'!H18=E17,"ParsCit",IF('[1]Tabelle 1'!I18=E17,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-      <c r="D17" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J18=MAX('[1]Tabelle 1'!J18:M18),"Cermine",IF('[1]Tabelle 1'!K18=MAX('[1]Tabelle 1'!J18:M18),"Grobid",IF('[1]Tabelle 1'!L18=MAX('[1]Tabelle 1'!J18:M18),"ParsCit",IF('[1]Tabelle 1'!M18=MAX('[1]Tabelle 1'!J18:M18),"PDFX","none"))))</f>
+      <c r="E17" s="3">
+        <f>MAX('[1]Tabelle 1'!F18:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J18=G17,"Cermine",IF('[1]Tabelle 1'!K18=G17,"Grobid",IF('[1]Tabelle 1'!L18=G17,"ParsCit",IF('[1]Tabelle 1'!M18=G17,"PDFX","none"))))</f>
         <v>Cermine</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="G17" s="3">
+        <f>MAX('[1]Tabelle 1'!J18:M18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="str">
         <f>'[1]Tabelle 1'!A19</f>
         <v>Url</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B19=MAX('[1]Tabelle 1'!B19:E19),"Cermine",IF('[1]Tabelle 1'!C19=MAX('[1]Tabelle 1'!B19:E19),"Grobid",IF('[1]Tabelle 1'!D19=MAX('[1]Tabelle 1'!B19:E19),"ParsCit",IF('[1]Tabelle 1'!E19=MAX('[1]Tabelle 1'!B19:E19),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F19=MAX('[1]Tabelle 1'!F19:I19),"Cermine",IF('[1]Tabelle 1'!G19=MAX('[1]Tabelle 1'!F19:I19),"Grobid",IF('[1]Tabelle 1'!H19=MAX('[1]Tabelle 1'!F19:I19),"ParsCit",IF('[1]Tabelle 1'!I19=MAX('[1]Tabelle 1'!F19:I19),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B19=C18,"Cermine",IF('[1]Tabelle 1'!C19=C18,"Grobid",IF('[1]Tabelle 1'!D19=C18,"ParsCit",IF('[1]Tabelle 1'!E19=C18,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C18" s="3">
+        <f>MAX('[1]Tabelle 1'!B19:E19)</f>
+        <v>70.91</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J19=MAX('[1]Tabelle 1'!J19:M19),"Cermine",IF('[1]Tabelle 1'!K19=MAX('[1]Tabelle 1'!J19:M19),"Grobid",IF('[1]Tabelle 1'!L19=MAX('[1]Tabelle 1'!J19:M19),"ParsCit",IF('[1]Tabelle 1'!M19=MAX('[1]Tabelle 1'!J19:M19),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+        <f>IF('[1]Tabelle 1'!F19=E18,"Cermine",IF('[1]Tabelle 1'!G19=E18,"Grobid",IF('[1]Tabelle 1'!H19=E18,"ParsCit",IF('[1]Tabelle 1'!I19=E18,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E18" s="3">
+        <f>MAX('[1]Tabelle 1'!F19:I19)</f>
+        <v>44.83</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J19=G18,"Cermine",IF('[1]Tabelle 1'!K19=G18,"Grobid",IF('[1]Tabelle 1'!L19=G18,"ParsCit",IF('[1]Tabelle 1'!M19=G18,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G18" s="3">
+        <f>MAX('[1]Tabelle 1'!J19:M19)</f>
+        <v>41.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="str">
         <f>'[1]Tabelle 1'!A20</f>
         <v>Average</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!B20=MAX('[1]Tabelle 1'!B20:E20),"Cermine",IF('[1]Tabelle 1'!C20=MAX('[1]Tabelle 1'!B20:E20),"Grobid",IF('[1]Tabelle 1'!D20=MAX('[1]Tabelle 1'!B20:E20),"ParsCit",IF('[1]Tabelle 1'!E20=MAX('[1]Tabelle 1'!B20:E20),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!F20=MAX('[1]Tabelle 1'!F20:I20),"Cermine",IF('[1]Tabelle 1'!G20=MAX('[1]Tabelle 1'!F20:I20),"Grobid",IF('[1]Tabelle 1'!H20=MAX('[1]Tabelle 1'!F20:I20),"ParsCit",IF('[1]Tabelle 1'!I20=MAX('[1]Tabelle 1'!F20:I20),"PDFX","none"))))</f>
-        <v>Grobid</v>
+        <f>IF('[1]Tabelle 1'!B20=C20,"Cermine",IF('[1]Tabelle 1'!C20=C20,"Grobid",IF('[1]Tabelle 1'!D20=C20,"ParsCit",IF('[1]Tabelle 1'!E20=C20,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="C20" s="3">
+        <f>MAX('[1]Tabelle 1'!B20:E20)</f>
+        <v>87.94</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>IF('[1]Tabelle 1'!J20=MAX('[1]Tabelle 1'!J20:M20),"Cermine",IF('[1]Tabelle 1'!K20=MAX('[1]Tabelle 1'!J20:M20),"Grobid",IF('[1]Tabelle 1'!L20=MAX('[1]Tabelle 1'!J20:M20),"ParsCit",IF('[1]Tabelle 1'!M20=MAX('[1]Tabelle 1'!J20:M20),"PDFX","none"))))</f>
-        <v>Grobid</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+        <f>IF('[1]Tabelle 1'!F20=E20,"Cermine",IF('[1]Tabelle 1'!G20=E20,"Grobid",IF('[1]Tabelle 1'!H20=E20,"ParsCit",IF('[1]Tabelle 1'!I20=E20,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="E20" s="3">
+        <f>MAX('[1]Tabelle 1'!F20:I20)</f>
+        <v>47.13</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF('[1]Tabelle 1'!J20=G20,"Cermine",IF('[1]Tabelle 1'!K20=G20,"Grobid",IF('[1]Tabelle 1'!L20=G20,"ParsCit",IF('[1]Tabelle 1'!M20=G20,"PDFX","none"))))</f>
+        <v>Grobid</v>
+      </c>
+      <c r="G20" s="3">
+        <f>MAX('[1]Tabelle 1'!J20:M20)</f>
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>NOT(AND(EXACT($B2,$C2),EXACT($C2,$D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:D20">
+  <conditionalFormatting sqref="B2:G18 B20:G20">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(AND(EXACT($B3,$C3),EXACT($C3,$D3)))</formula>
+      <formula>NOT(AND(EXACT($B2,$D2),EXACT($D2,$F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
